--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/word_level_error_type_summary_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/word_level_error_type_summary_17.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>error_type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -443,21 +448,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -467,23 +472,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B6" t="n">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/word_level_error_type_summary_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/word_level_error_type_summary_17.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -448,21 +443,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -472,23 +467,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
       <c r="B6" t="n">
